--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2694384.755156308</v>
+        <v>2798564.389607381</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>4.792004777349415</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498674</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734093895</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.35604302001497</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>185.8117075282594</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>135.9120781262769</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>23.46591175453321</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>146.190546984556</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>164.9502303766373</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>94.00928821139618</v>
+        <v>24.93375787515281</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>65.14551404550687</v>
       </c>
       <c r="U10" t="n">
-        <v>155.5598945400494</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>107.3870054807226</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>41.74133133758713</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>185.6920487814947</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187849</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>75.00788511618082</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6814669854336</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.41782514684017</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>110.2476086063451</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>252.4188248364702</v>
+        <v>279.8736113776595</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.006892987835467</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>22.10695458833863</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>110.0177171766866</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>78.71385496658263</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>150.3341561773491</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879453</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600384</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477026</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>420.1857186477026</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>420.1857186477026</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>252.4828820224216</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>106.2656952402794</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3078.030225735987</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2746.967338392416</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2746.967338392416</v>
+        <v>2401.041100284559</v>
       </c>
       <c r="X5" t="n">
-        <v>2373.501580131336</v>
+        <v>2027.575342023478</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1637.436010047667</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>491.70344522622</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>491.70344522622</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>491.70344522622</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>491.70344522622</v>
       </c>
       <c r="X7" t="n">
-        <v>754.2706114983494</v>
+        <v>491.70344522622</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.4780323548192</v>
+        <v>491.70344522622</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
         <v>1232.150970528558</v>
@@ -4799,7 +4801,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4814,10 +4816,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296686</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.016509199431</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877109</v>
+        <v>765.2529990347969</v>
       </c>
       <c r="U10" t="n">
-        <v>541.9891837816004</v>
+        <v>476.1501321604404</v>
       </c>
       <c r="V10" t="n">
-        <v>287.3046955757135</v>
+        <v>476.1501321604404</v>
       </c>
       <c r="W10" t="n">
-        <v>287.3046955757135</v>
+        <v>476.1501321604404</v>
       </c>
       <c r="X10" t="n">
-        <v>287.3046955757135</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,40 +5038,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2387.388512467612</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>282.8695714929399</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>135.9796239950296</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2259.395357538347</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5749,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.0655846733346</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>411.1294017454277</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.597837787969</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.913349582082</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.496179545122</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>982.5066286471044</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>761.7140495035743</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6074,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6227,49 +6229,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6315,7 +6317,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6424,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3052.758924204019</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3052.758924204019</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.397703389529</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807136</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309225</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.199968177789</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3455.199968177789</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3234.407389034259</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6737,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6789,13 +6791,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>3195.647281583949</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4471.231687421536</v>
       </c>
       <c r="U34" t="n">
-        <v>1789.538274322277</v>
+        <v>4188.531069868344</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>3933.846581662458</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>3644.429411625497</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>3416.439860727479</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>3195.647281583949</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2507.920096795703</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2504.882831151424</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2311.700279152293</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1178.176104674216</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2045.209862480144</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.4449747012147</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>98.55338150863676</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>31.71340154579357</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.1765892730633</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>38.59775584152629</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>139.4693302300325</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>38.36786441186723</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>33.76564955277397</v>
+        <v>6.310863011584615</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>142.4141550350958</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.1398665102892</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>38.59775584152578</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>101.1181252153547</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25843,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>67.07129414993915</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="N2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.255899916831524e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687975</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15436.64000687966</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26451,13 +26453,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-852915.9702550044</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725877</v>
+        <v>475828.7754725878</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725878</v>
+        <v>475828.7754725884</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.3131061126</v>
+        <v>223924.3131061127</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.774913468</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="G6" t="n">
         <v>549336.774913468</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.774913468</v>
+        <v>549336.7749134679</v>
       </c>
       <c r="I6" t="n">
-        <v>549336.774913468</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161907</v>
+        <v>331805.5725161905</v>
       </c>
       <c r="K6" t="n">
-        <v>549336.7749134679</v>
+        <v>549336.7749134683</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134682</v>
+        <v>549336.7749134684</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779563</v>
+        <v>464281.7469779564</v>
       </c>
       <c r="N6" t="n">
         <v>549336.7749134682</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.7749134679</v>
+        <v>549336.7749134682</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.7749134679</v>
+        <v>549336.7749134682</v>
       </c>
     </row>
   </sheetData>
@@ -26701,13 +26703,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26725,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>377.9418368861312</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>56.99637738982312</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,13 +27590,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>66.32593579556857</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0830938326251</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>325.7750569628798</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>73.35840229161317</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>60.75942501239987</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>275.7218124670728</v>
+        <v>344.7973428033162</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>154.4034352306623</v>
       </c>
       <c r="U10" t="n">
-        <v>130.6519436655635</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28381,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28801,19 +28803,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29338,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31610,10 +31612,10 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -32081,25 +32083,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>270.3182595810212</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32318,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>434.6640573992324</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32794,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,31 +33271,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>364.3208035245835</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819317</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>346.7710205055862</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34201,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,31 +34219,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639751</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35258,10 +35260,10 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3364854949997</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35966,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>300.6896499849021</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>224.339029438562</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599133</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419567</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798564.389607381</v>
+        <v>2794551.779593388</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8797265.295567481</v>
+        <v>8797265.295567479</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777349415</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>11.37624141617607</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414539</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>185.8117075282594</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>151.9440011798694</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>23.46591175453321</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677224</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>146.190546984556</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>80.95702428743121</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>24.93375787515281</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>65.14551404550687</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386317</v>
       </c>
     </row>
     <row r="11">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>107.3870054807226</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T19" t="n">
-        <v>185.6920487814947</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187849</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>111.551214499872</v>
       </c>
       <c r="U22" t="n">
-        <v>75.00788511618082</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,16 +2563,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>9.146142788179425</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>42.71572132711285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>279.8736113776595</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>145.2692016866627</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>110.0177171766866</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.71385496658263</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,13 +3957,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1303.529887077737</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1148.925018530803</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240522</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>790.6593199240522</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
         <v>1378.708694614559</v>
@@ -4400,16 +4400,16 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4421,7 +4421,7 @@
         <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486467</v>
@@ -4433,7 +4433,7 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
         <v>3196.023581695166</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.4317969248226</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>511.4317969248226</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.836169983545</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1771.418012197378</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W5" t="n">
-        <v>2401.041100284559</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2027.575342023478</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1637.436010047667</v>
+        <v>2158.0178522615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y7" t="n">
-        <v>491.70344522622</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1672.191441142815</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1672.191441142815</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1313.925742536065</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.5121164321834</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>765.2529990347969</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>476.1501321604404</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>476.1501321604404</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>476.1501321604404</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>248.1605812624231</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5026,28 +5026,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5524,40 +5524,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>2259.395357538347</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1970.320130882545</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.635642676658</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1426.218472639697</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1198.22892174168</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168594</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U22" t="n">
-        <v>1901.695539989114</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.011051783227</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192548</v>
@@ -6229,49 +6229,49 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6378,37 +6378,37 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,7 +6475,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576786</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>219.0505596597682</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,49 +6688,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583949</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243707</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421536</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4188.531069868344</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3933.846581662458</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3644.429411625497</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3416.439860727479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3195.647281583949</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7256,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2757.723669558405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7797,10 +7797,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.4449747012147</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T19" t="n">
-        <v>31.71340154579357</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>105.8542358274163</v>
       </c>
       <c r="U22" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>38.59775584152629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300325</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347518</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>6.310863011584615</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>80.4404537023745</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>38.59775584152578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.1181252153547</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735514</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380341</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.4601380342</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.255899916831524e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26456,10 +26456,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.9702550044</v>
+        <v>-852915.970255004</v>
       </c>
       <c r="C6" t="n">
-        <v>475828.7754725878</v>
+        <v>475828.7754725879</v>
       </c>
       <c r="D6" t="n">
-        <v>475828.7754725884</v>
+        <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>223924.3131061127</v>
+        <v>223576.9338517557</v>
       </c>
       <c r="F6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591113</v>
       </c>
       <c r="G6" t="n">
-        <v>549336.774913468</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="H6" t="n">
-        <v>549336.7749134679</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="I6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591116</v>
       </c>
       <c r="J6" t="n">
-        <v>331805.5725161905</v>
+        <v>331458.1932618335</v>
       </c>
       <c r="K6" t="n">
-        <v>549336.7749134683</v>
+        <v>548989.3956591112</v>
       </c>
       <c r="L6" t="n">
-        <v>549336.7749134684</v>
+        <v>548989.3956591111</v>
       </c>
       <c r="M6" t="n">
-        <v>464281.7469779564</v>
+        <v>463934.3677235993</v>
       </c>
       <c r="N6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591111</v>
       </c>
       <c r="O6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591111</v>
       </c>
       <c r="P6" t="n">
-        <v>549336.7749134682</v>
+        <v>548989.3956591112</v>
       </c>
     </row>
   </sheetData>
@@ -26703,13 +26703,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861312</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>395.4998043255354</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>66.32593579556857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>202.7390404408135</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.7750569628798</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351651</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>73.35840229161317</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>300.9733457848306</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>344.7973428033162</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>154.4034352306623</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282316</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28803,19 +28803,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>318.3985571819317</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>176.2645232599133</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_24_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2794551.779593388</v>
+        <v>2796312.309896172</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.37624141617607</v>
+        <v>11.37624141617652</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414544</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677224</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>151.9440011798694</v>
+        <v>151.9440011798704</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.08802744677224</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>80.95702428743121</v>
+        <v>80.95702428743165</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386317</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>22.04658882052573</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>111.551214499872</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.146142788179425</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.6126310577748</v>
+        <v>98.72106119200248</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>145.2692016866627</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471214</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C2" t="n">
         <v>1148.925018530803</v>
       </c>
       <c r="D2" t="n">
-        <v>790.6593199240522</v>
+        <v>790.6593199240526</v>
       </c>
       <c r="E2" t="n">
-        <v>790.6593199240522</v>
+        <v>790.6593199240526</v>
       </c>
       <c r="F2" t="n">
         <v>779.1681669784198</v>
@@ -4324,16 +4324,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4366,7 +4366,7 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
         <v>2277.953133796416</v>
@@ -4388,7 +4388,7 @@
         <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
         <v>1378.708694614559</v>
@@ -4400,16 +4400,16 @@
         <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
         <v>1159.005863978977</v>
@@ -4421,7 +4421,7 @@
         <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
         <v>2857.464672486467</v>
@@ -4479,61 +4479,61 @@
         <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1771.418012197378</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C5" t="n">
-        <v>1771.418012197378</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="D5" t="n">
         <v>1617.939223126803</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
         <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>2158.0178522615</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4713,64 +4713,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1672.191441142815</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="C8" t="n">
-        <v>1672.191441142815</v>
+        <v>1672.191441142816</v>
       </c>
       <c r="D8" t="n">
         <v>1313.925742536065</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4849,7 +4849,7 @@
         <v>2062.330773118627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1672.191441142815</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4947,64 +4947,64 @@
         <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5026,34 +5026,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5223,13 +5223,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
         <v>1746.193029533436</v>
@@ -5275,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5737,28 +5737,28 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5767,13 +5767,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,16 +5785,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6244,34 +6244,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0125592675714</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6666,7 +6666,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7417,16 +7417,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>126.5688841976866</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>105.8542358274163</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.634190040853</v>
+        <v>68.52575990662535</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>80.4404537023745</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>761249.2598735514</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761249.2598735512</v>
+        <v>761249.2598735513</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761249.2598735513</v>
+        <v>761249.2598735512</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442546</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26435,13 +26435,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852915.970255004</v>
+        <v>-852915.9702550046</v>
       </c>
       <c r="C6" t="n">
         <v>475828.7754725879</v>
@@ -26530,40 +26530,40 @@
         <v>475828.7754725881</v>
       </c>
       <c r="E6" t="n">
-        <v>223576.9338517557</v>
+        <v>223889.5751806772</v>
       </c>
       <c r="F6" t="n">
-        <v>548989.3956591113</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="G6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880324</v>
       </c>
       <c r="H6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="I6" t="n">
-        <v>548989.3956591116</v>
+        <v>549302.0369880324</v>
       </c>
       <c r="J6" t="n">
-        <v>331458.1932618335</v>
+        <v>331770.8345907548</v>
       </c>
       <c r="K6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="L6" t="n">
-        <v>548989.3956591111</v>
+        <v>549302.0369880325</v>
       </c>
       <c r="M6" t="n">
-        <v>463934.3677235993</v>
+        <v>464247.0090525203</v>
       </c>
       <c r="N6" t="n">
-        <v>548989.3956591111</v>
+        <v>549302.0369880322</v>
       </c>
       <c r="O6" t="n">
-        <v>548989.3956591111</v>
+        <v>549302.0369880321</v>
       </c>
       <c r="P6" t="n">
-        <v>548989.3956591112</v>
+        <v>549302.0369880322</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>395.4998043255354</v>
+        <v>395.4998043255349</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351651</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>202.7390404408135</v>
+        <v>202.7390404408126</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351651</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>300.9733457848306</v>
+        <v>300.9733457848301</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282316</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-9.003997547551987e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
